--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -25,16 +25,8 @@
     <t>Value2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    ● aaaaa 
-    ● aaaaaaaaaaaaa</t>
-    </r>
+    <t>● aaaaa
+● aaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -77,13 +69,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -481,7 +470,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.Wrapping.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.Wrapping.verified.xlsx
@@ -470,7 +470,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">
